--- a/procedures-dbEscola_WMUn4Zc (1).xlsx
+++ b/procedures-dbEscola_WMUn4Zc (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IFSP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IFSP\Desktop\BD2A3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -264,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -293,13 +293,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -314,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -336,6 +349,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +807,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -808,7 +827,7 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -832,7 +851,7 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -852,7 +871,7 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -896,7 +915,7 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -910,7 +929,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -954,7 +973,7 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -968,7 +987,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="5" t="s">
